--- a/Data_science_outputs_highlands/Graphs/Third/2/Montlhy_consumption_2.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/2/Montlhy_consumption_2.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6467.725421050005</v>
+        <v>3519.877855283337</v>
       </c>
       <c r="C2" t="n">
-        <v>2802.412269700005</v>
+        <v>2451.185251550004</v>
       </c>
       <c r="D2" t="n">
-        <v>2806.033767966667</v>
+        <v>266.02446665</v>
       </c>
       <c r="E2" t="n">
-        <v>760.5559989333333</v>
+        <v>705.7824905833334</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6060.909507550004</v>
+        <v>3272.683478216671</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2648.396811933333</v>
+        <v>245.3944441166667</v>
       </c>
       <c r="E3" t="n">
-        <v>721.7316567333334</v>
+        <v>652.7608028</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6497.689266833338</v>
+        <v>3517.970268016671</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2821.245803</v>
+        <v>262.2727990333333</v>
       </c>
       <c r="E4" t="n">
-        <v>769.3048199333334</v>
+        <v>710.1407461666666</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6298.120970416671</v>
+        <v>3397.452148900004</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2736.73680785</v>
+        <v>260.86414685</v>
       </c>
       <c r="E5" t="n">
-        <v>743.8828827166667</v>
+        <v>679.5414225000001</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6502.541210816671</v>
+        <v>3513.713012383337</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2806.700107616667</v>
+        <v>277.8715083166667</v>
       </c>
       <c r="E6" t="n">
-        <v>759.1299965333333</v>
+        <v>707.8486481666666</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6297.830134583338</v>
+        <v>3387.723233033337</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2741.586117766667</v>
+        <v>256.6911314166667</v>
       </c>
       <c r="E7" t="n">
-        <v>741.6059805333334</v>
+        <v>685.2091050499999</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6496.013245866671</v>
+        <v>3501.546563850004</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2806.297118333333</v>
+        <v>259.8741215833333</v>
       </c>
       <c r="E8" t="n">
-        <v>778.0986678666666</v>
+        <v>714.39179895</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6487.403546466671</v>
+        <v>3511.768444700004</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2816.639138116667</v>
+        <v>260.6551096166667</v>
       </c>
       <c r="E9" t="n">
-        <v>778.0730954166667</v>
+        <v>693.0463024333333</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6268.387387416672</v>
+        <v>3398.26477656667</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2735.898463283333</v>
+        <v>251.6544472166667</v>
       </c>
       <c r="E10" t="n">
-        <v>750.0552905166667</v>
+        <v>684.7389855333333</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6466.788037066672</v>
+        <v>3502.505524466671</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2829.674153533334</v>
+        <v>271.5944852</v>
       </c>
       <c r="E11" t="n">
-        <v>763.30018395</v>
+        <v>701.7888090666667</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6294.766931000005</v>
+        <v>3375.72635781667</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2728.553454633333</v>
+        <v>269.1228519</v>
       </c>
       <c r="E12" t="n">
-        <v>743.0134976833334</v>
+        <v>682.2240304000001</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>6283.582453883338</v>
+        <v>3388.810955300004</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2728.594155166666</v>
+        <v>253.7247749833333</v>
       </c>
       <c r="E13" t="n">
-        <v>731.4995136</v>
+        <v>679.5676984833334</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
